--- a/secure/26P-Wyatt.xlsx
+++ b/secure/26P-Wyatt.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Wyatt-929340</t>
+    <t>26P-Wyatt-645456</t>
   </si>
   <si>
-    <t>26P-Wyatt-209958</t>
+    <t>26P-Wyatt-127182</t>
   </si>
   <si>
-    <t>26P-Wyatt-679333</t>
+    <t>26P-Wyatt-533934</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fc9dfb84"/>
+        <fgColor rgb="F4990f9f"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:QQ503"/>
+  <dimension ref="A1:TM503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -541,14 +541,11 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:459" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>-0.944</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="QQ16" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -826,14 +823,11 @@
       </c>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>-0.756</v>
       </c>
       <c r="M63" s="4"/>
-      <c r="FJ63" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -841,14 +835,11 @@
       </c>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>-0.748</v>
       </c>
       <c r="M65" s="4"/>
-      <c r="AB65" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
@@ -1312,11 +1303,14 @@
       </c>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>-0.436</v>
       </c>
       <c r="M143" s="4"/>
+      <c r="BT143" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
@@ -1474,11 +1468,14 @@
       </c>
       <c r="M169" s="4"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>-0.328</v>
       </c>
       <c r="M170" s="4"/>
+      <c r="AC170" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
@@ -1864,11 +1861,14 @@
       </c>
       <c r="M234" s="4"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:533" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>-0.068</v>
       </c>
       <c r="M235" s="4"/>
+      <c r="TM235" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
